--- a/Assets/Editor/关卡管理.xlsx
+++ b/Assets/Editor/关卡管理.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6892055-0AC3-4DBB-A36A-1D37E64C8418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="僵尸" sheetId="1" r:id="rId1"/>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -141,15 +142,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -432,11 +430,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -559,13 +557,13 @@
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>7</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>3</v>
       </c>
     </row>
@@ -579,13 +577,13 @@
       <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>3</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>4</v>
       </c>
     </row>
@@ -599,13 +597,13 @@
       <c r="C8" s="2">
         <v>2</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>5</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>3</v>
       </c>
     </row>
@@ -619,13 +617,13 @@
       <c r="C9" s="2">
         <v>2</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>9</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>2</v>
       </c>
     </row>
@@ -639,14 +637,114 @@
       <c r="C10" s="2">
         <v>2</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>9</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="3">
-        <v>1</v>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>20</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
